--- a/Data/EC/NIT-9007840546.xlsx
+++ b/Data/EC/NIT-9007840546.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CE953E0-330C-4636-9E36-8CED5606C161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AC8E5E1-C5CF-4FBA-8A19-3C7E3302C473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B6727E44-5FFE-4266-8569-E9E0092CBA2C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{63F7AC78-FE72-4BA1-99F3-D47D689108E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="41">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -80,100 +80,52 @@
     <t>JOSE DEL TORO HERAZO</t>
   </si>
   <si>
-    <t>1047476233</t>
-  </si>
-  <si>
-    <t>MICHAEL EDUARDO MONTOYA PEREIRA</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>1055312345</t>
-  </si>
-  <si>
-    <t>DIEGO ANDRES NIÑO ACEVEDO</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
     <t>1232591798</t>
   </si>
   <si>
     <t>JAVIER HURTADO ORTEGA</t>
   </si>
   <si>
+    <t>1151202464</t>
+  </si>
+  <si>
+    <t>MAURICIO ANDRES ZABALA PACHECO</t>
+  </si>
+  <si>
+    <t>1143412913</t>
+  </si>
+  <si>
+    <t>ALEX JAIR ALTAMIRANDA GONZALEZ</t>
+  </si>
+  <si>
+    <t>1143413437</t>
+  </si>
+  <si>
+    <t>SEBASTIAN DE JESUS BALLESTAS SALGADO</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
     <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>1151202464</t>
-  </si>
-  <si>
-    <t>MAURICIO ANDRES ZABALA PACHECO</t>
-  </si>
-  <si>
-    <t>1143412913</t>
-  </si>
-  <si>
-    <t>ALEX JAIR ALTAMIRANDA GONZALEZ</t>
-  </si>
-  <si>
-    <t>1143413437</t>
-  </si>
-  <si>
-    <t>SEBASTIAN DE JESUS BALLESTAS SALGADO</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -272,7 +224,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -285,9 +239,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -487,23 +439,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -531,10 +483,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -587,7 +539,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBC41492-0ACC-1200-7239-2CB8D3DB16BF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFB910E8-611A-3B1E-D0CF-0416C11A1E27}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -938,8 +890,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C9648C5-3841-4D9F-A1DD-43F893A666C7}">
-  <dimension ref="B2:J47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7E23431-B246-4D50-81BB-76CDDC2D52FD}">
+  <dimension ref="B2:J35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -963,7 +915,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1008,7 +960,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1040,12 +992,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1445869</v>
+        <v>554800</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1056,17 +1008,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C13" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="F13" s="5">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1093,13 +1045,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1159,13 +1111,13 @@
         <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>188000</v>
+        <v>44000</v>
       </c>
       <c r="G18" s="18">
-        <v>4700000</v>
+        <v>1100000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1176,19 +1128,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F19" s="18">
-        <v>188000</v>
+        <v>40000</v>
       </c>
       <c r="G19" s="18">
-        <v>4700000</v>
+        <v>1000000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1199,19 +1151,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F20" s="18">
-        <v>188000</v>
+        <v>48000</v>
       </c>
       <c r="G20" s="18">
-        <v>4700000</v>
+        <v>1200000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1222,19 +1174,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F21" s="18">
-        <v>36341</v>
+        <v>19200</v>
       </c>
       <c r="G21" s="18">
-        <v>908526</v>
+        <v>1200000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1245,19 +1197,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>22</v>
       </c>
       <c r="F22" s="18">
-        <v>36341</v>
+        <v>44000</v>
       </c>
       <c r="G22" s="18">
-        <v>908526</v>
+        <v>1100000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1268,19 +1220,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>23</v>
       </c>
       <c r="F23" s="18">
-        <v>36341</v>
+        <v>44000</v>
       </c>
       <c r="G23" s="18">
-        <v>908526</v>
+        <v>1100000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1291,19 +1243,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E24" s="16" t="s">
         <v>24</v>
       </c>
       <c r="F24" s="18">
-        <v>36341</v>
+        <v>44000</v>
       </c>
       <c r="G24" s="18">
-        <v>908526</v>
+        <v>1100000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1314,19 +1266,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E25" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F25" s="18">
-        <v>36341</v>
+        <v>44000</v>
       </c>
       <c r="G25" s="18">
-        <v>908526</v>
+        <v>1100000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1337,19 +1289,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>26</v>
       </c>
       <c r="F26" s="18">
-        <v>36341</v>
+        <v>44000</v>
       </c>
       <c r="G26" s="18">
-        <v>908526</v>
+        <v>1100000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1360,19 +1312,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E27" s="16" t="s">
         <v>27</v>
       </c>
       <c r="F27" s="18">
-        <v>36341</v>
+        <v>44000</v>
       </c>
       <c r="G27" s="18">
-        <v>908526</v>
+        <v>1100000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1383,351 +1335,75 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E28" s="16" t="s">
         <v>28</v>
       </c>
       <c r="F28" s="18">
-        <v>36341</v>
+        <v>44000</v>
       </c>
       <c r="G28" s="18">
-        <v>908526</v>
+        <v>1100000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E29" s="16" t="s">
+      <c r="C29" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="F29" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G29" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B30" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F30" s="18">
+      <c r="F29" s="24">
         <v>39600</v>
       </c>
-      <c r="G30" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B31" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F31" s="18">
-        <v>44000</v>
-      </c>
-      <c r="G31" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B32" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F32" s="18">
-        <v>44000</v>
-      </c>
-      <c r="G32" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B33" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F33" s="18">
-        <v>44000</v>
-      </c>
-      <c r="G33" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
+      <c r="G29" s="24">
+        <v>1100000</v>
+      </c>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="26"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B34" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F34" s="18">
-        <v>44000</v>
-      </c>
-      <c r="G34" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
+      <c r="B34" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="32"/>
+      <c r="H34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B35" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F35" s="18">
-        <v>44000</v>
-      </c>
-      <c r="G35" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B36" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E36" s="16" t="s">
+      <c r="B35" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="F36" s="18">
-        <v>44000</v>
-      </c>
-      <c r="G36" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B37" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F37" s="18">
-        <v>44000</v>
-      </c>
-      <c r="G37" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B38" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F38" s="18">
-        <v>44000</v>
-      </c>
-      <c r="G38" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B39" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="16" t="s">
+      <c r="C35" s="32"/>
+      <c r="H35" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D39" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F39" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G39" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B40" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D40" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F40" s="18">
-        <v>48000</v>
-      </c>
-      <c r="G40" s="18">
-        <v>1200000</v>
-      </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B41" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="D41" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="E41" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F41" s="24">
-        <v>19200</v>
-      </c>
-      <c r="G41" s="24">
-        <v>1200000</v>
-      </c>
-      <c r="H41" s="25"/>
-      <c r="I41" s="25"/>
-      <c r="J41" s="26"/>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B46" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="C46" s="32"/>
-      <c r="H46" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B47" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="C47" s="32"/>
-      <c r="H47" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H34:J34"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9007840546.xlsx
+++ b/Data/EC/NIT-9007840546.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AC8E5E1-C5CF-4FBA-8A19-3C7E3302C473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{62890AB4-CBC5-4796-BF8D-D3BE22B68330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{63F7AC78-FE72-4BA1-99F3-D47D689108E8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DD4A589D-F99F-4D74-AC03-F8B98B359B51}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -224,9 +224,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -239,7 +237,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -433,29 +433,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -474,19 +474,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -539,7 +545,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFB910E8-611A-3B1E-D0CF-0416C11A1E27}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39BEC036-1D42-6EDA-425A-C3B0AB80DF87}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -890,7 +896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7E23431-B246-4D50-81BB-76CDDC2D52FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B9F886C-7205-4B7D-9F86-24E826E377CF}">
   <dimension ref="B2:J35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -913,49 +919,49 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
@@ -963,7 +969,7 @@
         <v>31</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -979,7 +985,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9007840546</v>
       </c>
@@ -995,7 +1001,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
         <v>554800</v>
       </c>
@@ -1064,18 +1070,18 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>16000</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="19">
         <v>1000000</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
@@ -1087,18 +1093,18 @@
       <c r="D17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>40000</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="19">
         <v>1000000</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
@@ -1110,18 +1116,18 @@
       <c r="D18" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <v>44000</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="19">
         <v>1100000</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
@@ -1133,18 +1139,18 @@
       <c r="D19" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="19">
         <v>40000</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="19">
         <v>1000000</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
@@ -1156,18 +1162,18 @@
       <c r="D20" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="19">
         <v>48000</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="19">
         <v>1200000</v>
       </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
@@ -1179,18 +1185,18 @@
       <c r="D21" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="19">
         <v>19200</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="19">
         <v>1200000</v>
       </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
@@ -1202,18 +1208,18 @@
       <c r="D22" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="19">
         <v>44000</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="19">
         <v>1100000</v>
       </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
@@ -1225,18 +1231,18 @@
       <c r="D23" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="19">
         <v>44000</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="19">
         <v>1100000</v>
       </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
@@ -1248,18 +1254,18 @@
       <c r="D24" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="19">
         <v>44000</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="19">
         <v>1100000</v>
       </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
@@ -1271,18 +1277,18 @@
       <c r="D25" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="19">
         <v>44000</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="19">
         <v>1100000</v>
       </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
@@ -1294,18 +1300,18 @@
       <c r="D26" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="19">
         <v>44000</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="19">
         <v>1100000</v>
       </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
@@ -1317,18 +1323,18 @@
       <c r="D27" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="19">
         <v>44000</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="19">
         <v>1100000</v>
       </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
@@ -1340,47 +1346,47 @@
       <c r="D28" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="19">
         <v>44000</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="19">
         <v>1100000</v>
       </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="22" t="s">
+      <c r="E29" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="F29" s="24">
+      <c r="F29" s="26">
         <v>39600</v>
       </c>
-      <c r="G29" s="24">
+      <c r="G29" s="26">
         <v>1100000</v>
       </c>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="26"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="28"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B34" s="32" t="s">
+      <c r="B34" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="32"/>
+      <c r="C34" s="34"/>
       <c r="H34" s="1" t="s">
         <v>39</v>
       </c>
@@ -1388,10 +1394,10 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B35" s="32" t="s">
+      <c r="B35" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="32"/>
+      <c r="C35" s="34"/>
       <c r="H35" s="1" t="s">
         <v>40</v>
       </c>
